--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\2 - Ad Hoc\EPS\eps-us-2.1.0\InputData\web-app\CDCF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E5A460-6DA6-4EFC-B782-962993CBDC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="7090"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CDCF-PMpPDOU" sheetId="2" r:id="rId2"/>
     <sheet name="CDCF-FTMpFDOU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Source:</t>
   </si>
@@ -36,15 +50,6 @@
     <t>desired output unit.</t>
   </si>
   <si>
-    <t>For the U.S. model, the desired output units are:</t>
-  </si>
-  <si>
-    <t>trillion passenger-miles</t>
-  </si>
-  <si>
-    <t>trillion freight ton-miles</t>
-  </si>
-  <si>
     <t>CDCF Passenger Miles per Passenger Distance Output Unit</t>
   </si>
   <si>
@@ -61,12 +66,27 @@
   </si>
   <si>
     <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
+  </si>
+  <si>
+    <t>For the EU model, the desired output units are:</t>
+  </si>
+  <si>
+    <t>Freight transport (Gtkm - Giga tonne-kilometers) - 10^9 tonne-kilometers - billion tonne-kilometers</t>
+  </si>
+  <si>
+    <t>Passenger transport (Gpkm - Giga passenger-kilometers) - 10^9 passenger-kilometers - billion passenger-kilometers</t>
+  </si>
+  <si>
+    <t>ton-mile in the USA: 1 ton-mile * ( 0.907185 t / short ton) * ( 1.609344 km / mile ) = 1.460 tkm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.00000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,16 +124,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -121,12 +142,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -168,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,9 +225,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,6 +277,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,24 +469,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,39 +500,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <f>0.907185*1.609344</f>
+        <v>1.4599727366400002</v>
       </c>
     </row>
   </sheetData>
@@ -478,32 +553,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
+        <f>1.609344*10^9</f>
+        <v>1609344000</v>
       </c>
     </row>
   </sheetData>
@@ -512,33 +589,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
-      </c>
+        <f>1.45997273664*10^9</f>
+        <v>1459972736.6399999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,36 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\2 - Ad Hoc\EPS\eps-us-2.1.0\InputData\web-app\CDCF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E5A460-6DA6-4EFC-B782-962993CBDC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="7090"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CDCF-PMpPDOU" sheetId="2" r:id="rId2"/>
     <sheet name="CDCF-FTMpFDOU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Source:</t>
   </si>
@@ -50,6 +36,15 @@
     <t>desired output unit.</t>
   </si>
   <si>
+    <t>For the U.S. model, the desired output units are:</t>
+  </si>
+  <si>
+    <t>trillion passenger-miles</t>
+  </si>
+  <si>
+    <t>trillion freight ton-miles</t>
+  </si>
+  <si>
     <t>CDCF Passenger Miles per Passenger Distance Output Unit</t>
   </si>
   <si>
@@ -66,27 +61,12 @@
   </si>
   <si>
     <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
-  </si>
-  <si>
-    <t>For the EU model, the desired output units are:</t>
-  </si>
-  <si>
-    <t>Freight transport (Gtkm - Giga tonne-kilometers) - 10^9 tonne-kilometers - billion tonne-kilometers</t>
-  </si>
-  <si>
-    <t>Passenger transport (Gpkm - Giga passenger-kilometers) - 10^9 passenger-kilometers - billion passenger-kilometers</t>
-  </si>
-  <si>
-    <t>ton-mile in the USA: 1 ton-mile * ( 0.907185 t / short ton) * ( 1.609344 km / mile ) = 1.460 tkm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000000000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,17 +104,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,15 +121,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -192,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,26 +201,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,23 +236,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,30 +411,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,50 +436,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <f>0.907185*1.609344</f>
-        <v>1.4599727366400002</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -553,34 +478,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <f>1.609344*10^9</f>
-        <v>1609344000</v>
+        <f>10^12</f>
+        <v>1000000000000</v>
       </c>
     </row>
   </sheetData>
@@ -589,38 +512,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <f>1.45997273664*10^9</f>
-        <v>1459972736.6399999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
+        <f>10^12</f>
+        <v>1000000000000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\web-app\CDCF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D18836A-B39E-44FA-BBD8-FA20656F100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="7090"/>
+    <workbookView xWindow="28680" yWindow="960" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CDCF-PMpPDOU" sheetId="2" r:id="rId2"/>
     <sheet name="CDCF-FTMpFDOU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Source:</t>
   </si>
@@ -36,15 +55,6 @@
     <t>desired output unit.</t>
   </si>
   <si>
-    <t>For the U.S. model, the desired output units are:</t>
-  </si>
-  <si>
-    <t>trillion passenger-miles</t>
-  </si>
-  <si>
-    <t>trillion freight ton-miles</t>
-  </si>
-  <si>
     <t>CDCF Passenger Miles per Passenger Distance Output Unit</t>
   </si>
   <si>
@@ -61,12 +71,27 @@
   </si>
   <si>
     <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
+  </si>
+  <si>
+    <t>For the EU. model, the desired output units are:</t>
+  </si>
+  <si>
+    <t>trillion passenger-km</t>
+  </si>
+  <si>
+    <t>trillion freight ton-km</t>
+  </si>
+  <si>
+    <t>Relevant Conversion Factors</t>
+  </si>
+  <si>
+    <t>miles to km</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,13 +135,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,14 +153,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +201,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -238,7 +273,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,24 +446,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,39 +477,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1.60934</v>
       </c>
     </row>
   </sheetData>
@@ -478,32 +533,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
+        <f>10^12*About!B16</f>
+        <v>1609340000000</v>
       </c>
     </row>
   </sheetData>
@@ -512,32 +569,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
+        <f>10^12*About!B16</f>
+        <v>1609340000000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\web-app\CDCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\web-app\CDCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D18836A-B39E-44FA-BBD8-FA20656F100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD1AAA1-F480-44F3-8E00-464726421EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="960" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30195" yWindow="2895" windowWidth="25590" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -449,27 +449,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,53 +477,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1.60934</v>
+        <v>0.62136999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -543,24 +543,24 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <f>10^12*About!B16</f>
-        <v>1609340000000</v>
+        <v>621370000000</v>
       </c>
     </row>
   </sheetData>
@@ -575,28 +575,28 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
         <f>10^12*About!B16</f>
-        <v>1609340000000</v>
+        <v>621370000000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\web-app\CDCF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD1AAA1-F480-44F3-8E00-464726421EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="7090"/>
+    <workbookView xWindow="30195" yWindow="2895" windowWidth="25590" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CDCF-PMpPDOU" sheetId="2" r:id="rId2"/>
     <sheet name="CDCF-FTMpFDOU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Source:</t>
   </si>
@@ -36,15 +55,6 @@
     <t>desired output unit.</t>
   </si>
   <si>
-    <t>For the U.S. model, the desired output units are:</t>
-  </si>
-  <si>
-    <t>trillion passenger-miles</t>
-  </si>
-  <si>
-    <t>trillion freight ton-miles</t>
-  </si>
-  <si>
     <t>CDCF Passenger Miles per Passenger Distance Output Unit</t>
   </si>
   <si>
@@ -61,12 +71,27 @@
   </si>
   <si>
     <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
+  </si>
+  <si>
+    <t>For the EU. model, the desired output units are:</t>
+  </si>
+  <si>
+    <t>trillion passenger-km</t>
+  </si>
+  <si>
+    <t>trillion freight ton-km</t>
+  </si>
+  <si>
+    <t>Relevant Conversion Factors</t>
+  </si>
+  <si>
+    <t>miles to km</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,13 +135,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,14 +153,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +201,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -238,7 +273,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,21 +446,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -447,7 +488,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -458,17 +499,31 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.62136999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -478,32 +533,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>10</v>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
+        <f>10^12*About!B16</f>
+        <v>621370000000</v>
       </c>
     </row>
   </sheetData>
@@ -512,13 +569,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -527,17 +586,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>12</v>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
+        <f>10^12*About!B16</f>
+        <v>621370000000</v>
       </c>
     </row>
   </sheetData>
